--- a/Question_Sets/Software skills/Working with Midjourney.xlsx
+++ b/Question_Sets/Software skills/Working with Midjourney.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are a freelance Midjourney prompt-engineer. A children's book author has emailed you with the following request:“I am writing a children’s book about a squirrel. The book will be published in hard copy. I don’t have a specific color or age (young or old squirrel) yet. Can you create an illustration of a friendly-looking squirrel character? I need at least two different poses.”Which prompt should you start with to produce the desired character illustration?", 'ques_type': 2, 'options': ["/imagine a child-friendly illustration of a playful squirrel tailored for a children's book style.", "/imagine a playful squirrel in two distinct poses, tailored for a children's book style.", '/imagine a playful drawing of a squirrel in various poses, comic book style. ', '/imagine a vector drawing of a playful squirrel in many poses'], 'score': "/imagine a child-friendly illustration of a playful squirrel tailored for a children's book style."}, {'title': 'You are a freelance digital artist tasked by a client to create a photorealistic portrait of a red-haired man that visually conveys honesty.Which of the following prompts should you use?', 'ques_type': 2, 'options': ['A photorealistic portrait of a red-haired man with a warm, open smile, kind eyes, and a relaxed posture set in a bright, welcoming environment', 'A photorealistic portrait of a red-haired man looking directly at the viewer with a slight smile and calm expression', 'A photorealistic portrait of a red-haired man with a neutral facial expression, looking away from the viewer, expressing honesty and calmness', 'A photorealistic portrait of a red-haired man, focusing on sharp, stylish attire and a professional setting'], 'score': 'A photorealistic portrait of a red-haired man with a warm, open smile, kind eyes, and a relaxed posture set in a bright, welcoming environment'}, {'title': 'You are a digital artist using Midjourney. Your client has asked you to recreate "Luncheon of the Boating Party\'\' by Renoir, but replacing the people with goats. They want you to preserve the painting’s original composition, weight, and atmosphere. Which prompt should you use?', 'ques_type': 2, 'options': ["Renoir's 'Luncheon of the Boating Party', replace people with goats, replicate original composition and weight --ar 3:2 --stylize 500 --quality 1 --chaos 30 --iw 1.5", "'Luncheon of the Boating Party' to include goats, retain main scene elements --ar 3:2 --stylize 300 --quality .5 --chaos 50 --iw 1", "‘Luncheon of the Boating Party' with goats, focus on goats, less emphasis on original layout --ar 3:2 --stylize 100 --quality .25 --chaos 70 --iw 0.5", 'New interpretation inspired by Renoir, goats as main subjects, free from original composition constraints --ar 3:2 --stylize 0 --quality .25 --chaos 100 --iw 0.25'], 'score': "Renoir's 'Luncheon of the Boating Party', replace people with goats, replicate original composition and weight --ar 3:2 --stylize 500 --quality 1 --chaos 30 --iw 1.5"}, {'title': 'You are a freelance digital artist using Midjourney. You are working for a client who wants original art to promote a play set in ancient Greece. The art should feature a man and a woman and be representative of the artwork shown below.Which details should you include in the prompt?', 'ques_type': 2, 'options': ['Neoclassical image, inspired by Jacques-Louis David, marble columns and frescoes', 'High Renaissance image, emulating Raphael, classical architecture background', 'Romantic style image, reminiscent of Eugene Delacroix, dramatic scene with ancient ruins', 'Impressionist image, akin to Claude Monet, vibrant landscapes'], 'score': 'Neoclassical image, inspired by Jacques-Louis David, marble columns and frescoes'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a freelance Midjourney prompt-engineer. A children's book author has emailed you with the following request:\u201cI am writing a children\u2019s book about a squirrel. The book will be published in hard copy. I don\u2019t have a specific color or age (young or old squirrel) yet. Can you create an illustration of a friendly-looking squirrel character? I need at least two different poses.\u201dWhich prompt should you start with to produce the desired character illustration?",
+        "ques_type": 2,
+        "options": [
+            "/imagine a child-friendly illustration of a playful squirrel tailored for a children's book style.",
+            "/imagine a playful squirrel in two distinct poses, tailored for a children's book style.",
+            "/imagine a playful drawing of a squirrel in various poses, comic book style. ",
+            "/imagine a vector drawing of a playful squirrel in many poses"
+        ],
+        "score": "/imagine a child-friendly illustration of a playful squirrel tailored for a children's book style."
+    },
+    {
+        "title": "You are a freelance digital artist tasked by a client to create a photorealistic portrait of a red-haired man that visually conveys honesty.Which of the following prompts should you use?",
+        "ques_type": 2,
+        "options": [
+            "A photorealistic portrait of a red-haired man with a warm, open smile, kind eyes, and a relaxed posture set in a bright, welcoming environment",
+            "A photorealistic portrait of a red-haired man looking directly at the viewer with a slight smile and calm expression",
+            "A photorealistic portrait of a red-haired man with a neutral facial expression, looking away from the viewer, expressing honesty and calmness",
+            "A photorealistic portrait of a red-haired man, focusing on sharp, stylish attire and a professional setting"
+        ],
+        "score": "A photorealistic portrait of a red-haired man with a warm, open smile, kind eyes, and a relaxed posture set in a bright, welcoming environment"
+    },
+    {
+        "title": "You are a digital artist using Midjourney. Your client has asked you to recreate \"Luncheon of the Boating Party'' by Renoir, but replacing the people with goats. They want you to preserve the painting\u2019s original composition, weight, and atmosphere. Which prompt should you use?",
+        "ques_type": 2,
+        "options": [
+            "Renoir's 'Luncheon of the Boating Party', replace people with goats, replicate original composition and weight --ar 3:2 --stylize 500 --quality 1 --chaos 30 --iw 1.5",
+            "'Luncheon of the Boating Party' to include goats, retain main scene elements --ar 3:2 --stylize 300 --quality .5 --chaos 50 --iw 1",
+            "\u2018Luncheon of the Boating Party' with goats, focus on goats, less emphasis on original layout --ar 3:2 --stylize 100 --quality .25 --chaos 70 --iw 0.5",
+            "New interpretation inspired by Renoir, goats as main subjects, free from original composition constraints --ar 3:2 --stylize 0 --quality .25 --chaos 100 --iw 0.25"
+        ],
+        "score": "Renoir's 'Luncheon of the Boating Party', replace people with goats, replicate original composition and weight --ar 3:2 --stylize 500 --quality 1 --chaos 30 --iw 1.5"
+    },
+    {
+        "title": "You are a freelance digital artist using Midjourney. You are working for a client who wants original art to promote a play set in ancient Greece. The art should feature a man and a woman and be representative of the artwork shown below.Which details should you include in the prompt?",
+        "ques_type": 2,
+        "options": [
+            "Neoclassical image, inspired by Jacques-Louis David, marble columns and frescoes",
+            "High Renaissance image, emulating Raphael, classical architecture background",
+            "Romantic style image, reminiscent of Eugene Delacroix, dramatic scene with ancient ruins",
+            "Impressionist image, akin to Claude Monet, vibrant landscapes"
+        ],
+        "score": "Neoclassical image, inspired by Jacques-Louis David, marble columns and frescoes"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
